--- a/biology/Botanique/Polysiphonia/Polysiphonia.xlsx
+++ b/biology/Botanique/Polysiphonia/Polysiphonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polysiphonia est un genre d’algues rouges de la famille des Rhodomelaceae. 
 Son appareil végétatif est un cladothalle à croissance télomique (c'est-à-dire par l'extrémité). Cette croissance est orientée par la présence de nœud et d'entre-nœud.  
@@ -513,9 +525,11 @@
           <t>Cycle de développement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Cycle de développement de Polysiphonia est dit : Cycle haplodiplophasique trigénétique[1]. On a en effet 3 générations : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cycle de développement de Polysiphonia est dit : Cycle haplodiplophasique trigénétique. On a en effet 3 générations : 
 Génération du gamétophyte (haploide)
 Génération du Carposporophyte (diploide)
 Génération du Tétrasporophyte (diploide)
@@ -557,7 +571,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Polysiphonia a une organisation en siphon.
 Son tronc est constitué de d'une grosse cellule centrale et de cellules péricentrales plus petites et riches en plaste. 
@@ -590,9 +606,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (7 déc. 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (7 déc. 2012) :
 Polysiphonia abscissa J.D.Hooker &amp; Harvey
 Polysiphonia abscissoides Womersley
 Polysiphonia acanthina J.Agardh
@@ -974,7 +992,7 @@
 Polysiphonia wulfenii Kützing
 Polysiphonia yokoskensis Hariot (Sans vérification)
 Polysiphonia zanardinii Schiffner (Sans vérification)
-Selon Catalogue of Life                                   (7 déc. 2012)[3] :
+Selon Catalogue of Life                                   (7 déc. 2012) :
 Polysiphonia abscissa
 Polysiphonia abscissoides
 Polysiphonia acuminata
@@ -1189,7 +1207,7 @@
 Polysiphonia utricularis
 Polysiphonia virgata
 Polysiphonia yonakuniensis
-Selon ITIS      (7 déc. 2012)[4] :
+Selon ITIS      (7 déc. 2012) :
 Polysiphonia acuminata
 Polysiphonia aquamara
 Polysiphonia bajacali
@@ -1242,7 +1260,7 @@
 Polysiphonia urceolata (Dillwyn) Greville
 Polysiphonia violacea
 Polysiphonia yonakuniensis
-Selon NCBI  (7 déc. 2012)[5] :
+Selon NCBI  (7 déc. 2012) :
 Polysiphonia akkeshiensis
 Polysiphonia anomala
 Polysiphonia aterrima
